--- a/biology/Médecine/Glande_parathyroïde/Glande_parathyroïde.xlsx
+++ b/biology/Médecine/Glande_parathyroïde/Glande_parathyroïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glande_parathyro%C3%AFde</t>
+          <t>Glande_parathyroïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une glande parathyroïde, ou  parathyroïde, est une des petites glandes (2-3mm de diamètre et qui pèse de 30 à 40mg), généralement au nombre de quatre, parfois jusqu'à huit, situées dans le cou, en arrière et à proximité de la glande thyroïde, qui sécrètent la parathormone (PTH) favorisant la régulation des taux de calcium et de phosphore dans le sang. Soit un rôle primordial dans le métabolisme phosphocalcique.
 Ce sont les  cellules principales. On trouve également des petites cellules ayant un rôle mal connu, les cellules oxyphiles, aussi appelées cellules de Welsh, qui sont riches en mitochondries (leur très grand nombre dans l'adénome parathyroïdien suggère qu'elles ont un rôle dans la production de parathormone ou dans la régulation de sa sécrétion), et des adipocytes (ces derniers apparaissent à l'adolescence et se développent jusqu'à l'âge de 40 ans).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glande_parathyro%C3%AFde</t>
+          <t>Glande_parathyroïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hyperparathyroïdie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une hyperparathyroïdie peut être primaire ou secondaire.
 Approximativement 80 % des formes primaires sont dues à des adénomes d'une parathyroïde,
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glande_parathyro%C3%AFde</t>
+          <t>Glande_parathyroïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Hypoparathyroïdie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hypoparathyroïdie est un fonctionnement insuffisant des glandes parathyroïdes dans l'organisme. Il existe différentes formes d'hypoparathyroïdie.
 </t>
